--- a/management/TODO.xlsx
+++ b/management/TODO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>卢冰</t>
   </si>
@@ -148,6 +148,27 @@
   </si>
   <si>
     <t>郑永祥</t>
+  </si>
+  <si>
+    <t>茅勤</t>
+  </si>
+  <si>
+    <t>朱保全</t>
+  </si>
+  <si>
+    <t>曹京明</t>
+  </si>
+  <si>
+    <t>吴轶秦</t>
+  </si>
+  <si>
+    <t>郭散皞</t>
+  </si>
+  <si>
+    <t>领导，之前跟您汇报过一次，我开发了一个辅助车位定价的系统，现在可以运转。</t>
+  </si>
+  <si>
+    <t>我是北京区域设计部的李谦，曾经跟您见过几面。我最近研发了一个服务于车位定价的系统。这个系统对咱们现在的工作可能有一些价值。冒昧给您发一些资料，争取一些您的关注。这个系统采用了一些技术手段，可以给项目提供精细的车位定价方案。可以作为管理抓手、提高定价方案的质量、节约管理人力、提高透明度；解决车位销售中管理难度大、价值流失和透明度不足导致的客户信任问题。推荐给您是我考虑这个系统可能需要比较大的体量以产生足够价值。我给您附上一个介绍，期待您的指导和建议。</t>
   </si>
 </sst>
 </file>
@@ -207,13 +228,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,11 +521,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="85" style="5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
@@ -538,15 +565,18 @@
         <v>3</v>
       </c>
       <c r="B11" s="1"/>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="1"/>
+      <c r="D12" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -572,67 +602,70 @@
       </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" s="2"/>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="2"/>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="2"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>15</v>
       </c>
       <c r="B29" s="1"/>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -651,6 +684,33 @@
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">

--- a/management/TODO.xlsx
+++ b/management/TODO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>卢冰</t>
   </si>
@@ -165,10 +165,13 @@
     <t>郭散皞</t>
   </si>
   <si>
-    <t>领导，之前跟您汇报过一次，我开发了一个辅助车位定价的系统，现在可以运转。</t>
-  </si>
-  <si>
     <t>我是北京区域设计部的李谦，曾经跟您见过几面。我最近研发了一个服务于车位定价的系统。这个系统对咱们现在的工作可能有一些价值。冒昧给您发一些资料，争取一些您的关注。这个系统采用了一些技术手段，可以给项目提供精细的车位定价方案。可以作为管理抓手、提高定价方案的质量、节约管理人力、提高透明度；解决车位销售中管理难度大、价值流失和透明度不足导致的客户信任问题。推荐给您是我考虑这个系统可能需要比较大的体量以产生足够价值。我给您附上一个介绍，期待您的指导和建议。</t>
+  </si>
+  <si>
+    <t>我跨线条在营销系统推这个东西可能会有一些难度，希望能给您汇报一下，如果您判断有用，请您帮我争取一些支持。</t>
+  </si>
+  <si>
+    <t>领导，之前跟您提过，我做了一个辅助车位定价的系统，现在已经开始试用。我给海波、牛红娜演示过，收集了一些他们的反馈。车位库存在咱们区域和集团都不少，我基本肯定这个系统有一些价值：它可以给车位提供比较精细的定价方案；提高定价方案的质量、节约管理人力、提高透明度；解决车位销售中管理难度大、不均匀去化、价值流失和客户信任等问题。我给您附上一个介绍，期待您的指导和建议。</t>
   </si>
 </sst>
 </file>
@@ -228,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -238,6 +241,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,48 +525,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="85" style="5" customWidth="1"/>
+    <col min="4" max="4" width="88.85546875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -569,34 +576,37 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="1"/>
       <c r="D12" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -608,13 +618,13 @@
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="1"/>
       <c r="D18" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">

--- a/management/TODO.xlsx
+++ b/management/TODO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>卢冰</t>
   </si>
@@ -172,6 +172,30 @@
   </si>
   <si>
     <t>领导，之前跟您提过，我做了一个辅助车位定价的系统，现在已经开始试用。我给海波、牛红娜演示过，收集了一些他们的反馈。车位库存在咱们区域和集团都不少，我基本肯定这个系统有一些价值：它可以给车位提供比较精细的定价方案；提高定价方案的质量、节约管理人力、提高透明度；解决车位销售中管理难度大、不均匀去化、价值流失和客户信任等问题。我给您附上一个介绍，期待您的指导和建议。</t>
+  </si>
+  <si>
+    <t>李巍</t>
+  </si>
+  <si>
+    <t>郭继勋</t>
+  </si>
+  <si>
+    <t>胡宸恺</t>
+  </si>
+  <si>
+    <t>林长崟</t>
+  </si>
+  <si>
+    <t>富力</t>
+  </si>
+  <si>
+    <t>王子文</t>
+  </si>
+  <si>
+    <t>王巍</t>
+  </si>
+  <si>
+    <t>宝总您好！我是北京区域的李谦，之前是北京区域总建筑和沈阳公司合伙人。虽然没有机会跟您做过特别充分的交流，但是我对您的社会愿景和创新精神一直怀着崇敬和感佩。冒昧给您分享我这两年来研发的一个服务于车位销售的系统。它可以给车位提供比较精细的定价方案；提高定价方案的质量、节约管理人力、提高透明度；解决车位销售中管理难度大、不均匀去化、价值流失和客户信任等问题。我判断有机会产生亿元级的价值增量。我附上介绍，希望得到您的浏览。在您感兴趣的前提下，我希望能有机会去深圳占用您二十分钟当面给您介绍，并且争取一个在万物云系统试用的机会！</t>
   </si>
 </sst>
 </file>
@@ -525,15 +549,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="88.85546875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="83" style="5" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -576,7 +600,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -639,6 +663,12 @@
       </c>
       <c r="B21" s="2"/>
     </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
@@ -663,77 +693,98 @@
       </c>
       <c r="B26" s="2"/>
     </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="2"/>
+    </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>13</v>
+      </c>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="1"/>
+      <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>44</v>
       </c>
       <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D37" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>43</v>
       </c>
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>17</v>
       </c>
@@ -741,7 +792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>18</v>
       </c>
@@ -795,6 +846,19 @@
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/management/TODO.xlsx
+++ b/management/TODO.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
   <si>
     <t>卢冰</t>
   </si>
@@ -195,7 +196,58 @@
     <t>王巍</t>
   </si>
   <si>
-    <t>宝总您好！我是北京区域的李谦，之前是北京区域总建筑和沈阳公司合伙人。虽然没有机会跟您做过特别充分的交流，但是我对您的社会愿景和创新精神一直怀着崇敬和感佩。冒昧给您分享我这两年来研发的一个服务于车位销售的系统。它可以给车位提供比较精细的定价方案；提高定价方案的质量、节约管理人力、提高透明度；解决车位销售中管理难度大、不均匀去化、价值流失和客户信任等问题。我判断有机会产生亿元级的价值增量。我附上介绍，希望得到您的浏览。在您感兴趣的前提下，我希望能有机会去深圳占用您二十分钟当面给您介绍，并且争取一个在万物云系统试用的机会！</t>
+    <t>李璟琰</t>
+  </si>
+  <si>
+    <t>跟踪</t>
+  </si>
+  <si>
+    <t>整售推荐</t>
+  </si>
+  <si>
+    <t>继续推介</t>
+  </si>
+  <si>
+    <t>裴雷</t>
+  </si>
+  <si>
+    <t>阳光城</t>
+  </si>
+  <si>
+    <t>我附上介绍，希望得到您的浏览。在您感兴趣的前提下，我希望能有机会去深圳占用您二十分钟当面给您介绍，并且争取一个在万物云系统试用的机会！</t>
+  </si>
+  <si>
+    <t>宝总您好！我是李谦，之前是万科北京区域总建筑和沈阳公司合伙人。虽然没有机会跟您做过特别充分的交流，但是我对您的社会愿景和创新精神一直怀着崇敬和感佩。冒昧给您分享我这两年来研发的一个服务于车位销售的新系统。它可以给车位提供精细的定价方案；提高定价方案的质量、节约管理人力、提高透明度；解决车位销售中管理难度大、不均匀去化、价值流失和客户信任等问题。我判断有机会产生亿元级的价值增量。</t>
+  </si>
+  <si>
+    <t>宝总回复：北京物业的朱建华在负责这个事，你们在北京聊聊</t>
+  </si>
+  <si>
+    <t>朱建华</t>
+  </si>
+  <si>
+    <t>万物云财务</t>
+  </si>
+  <si>
+    <t>沟通</t>
+  </si>
+  <si>
+    <t>汇报</t>
+  </si>
+  <si>
+    <t>持续沟通</t>
+  </si>
+  <si>
+    <t>宝总：感谢您给了我一个机会跟朱建华交流。朱总很认可我们的系统的思路。他说有研究定价策略或者有整盘车位销售的时候，跟我们试跑一下。</t>
+  </si>
+  <si>
+    <t>关键负责人</t>
+  </si>
+  <si>
+    <t>昂总，我已经和刘洋交流过车位定价系统。刘洋非常认可这个系统能创造的潜在价值。我们下一步找试点项目试跑一下。感谢您的关注和认可！您觉得合适的时候，我们再给您现场汇报。</t>
+  </si>
+  <si>
+    <t>已经反馈。试点项目</t>
   </si>
 </sst>
 </file>
@@ -217,7 +269,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,12 +288,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -257,17 +303,23 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -549,316 +601,429 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="83" style="5" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="11.28515625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" style="3"/>
+    <col min="5" max="5" width="59.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="27.5703125" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="D11" s="5" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="D12" s="5" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="E12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="F12" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="G12" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="G15" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="115.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="F17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="E18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="D18" s="5" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="E19" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="E20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="G23" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="E27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="E33" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:9" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="1"/>
-      <c r="D37" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="E37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="F38" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="B47" s="4"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B49" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B50" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B58" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B60" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
         <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
